--- a/8-2025.xlsx
+++ b/8-2025.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="154">
   <si>
     <t>خالد محمد علي العطيفي</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>totalSalary</t>
+  </si>
+  <si>
+    <t>netSalary</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -595,6 +598,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,29 +938,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M1" sqref="A1:M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5">
+    <row r="1" spans="1:13" ht="28.5">
       <c r="A1" s="8" t="s">
         <v>142</v>
       </c>
@@ -993,8 +998,11 @@
       <c r="L1" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>946</v>
       </c>
@@ -1031,8 +1039,12 @@
         <f t="shared" ref="L2:L33" si="1">C2*I2</f>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="10">
+        <f>L2+K2</f>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>1078</v>
       </c>
@@ -1069,8 +1081,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M66" si="2">L3+K3</f>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>3018</v>
       </c>
@@ -1107,8 +1123,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>4116</v>
       </c>
@@ -1145,8 +1165,12 @@
         <f t="shared" si="1"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="10">
+        <f t="shared" si="2"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>50507</v>
       </c>
@@ -1183,8 +1207,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>930</v>
       </c>
@@ -1221,8 +1249,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>1440</v>
       </c>
@@ -1259,8 +1291,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>3015</v>
       </c>
@@ -1297,8 +1333,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>3017</v>
       </c>
@@ -1335,8 +1375,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>3019</v>
       </c>
@@ -1373,8 +1417,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>3039</v>
       </c>
@@ -1411,8 +1459,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>3058</v>
       </c>
@@ -1449,8 +1501,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>3080</v>
       </c>
@@ -1487,8 +1543,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>4129</v>
       </c>
@@ -1525,8 +1585,12 @@
         <f t="shared" si="1"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="10">
+        <f t="shared" si="2"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>4134</v>
       </c>
@@ -1563,8 +1627,12 @@
         <f t="shared" si="1"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="10">
+        <f t="shared" si="2"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>4012</v>
       </c>
@@ -1601,8 +1669,12 @@
         <f t="shared" si="1"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="10">
+        <f t="shared" si="2"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>4009</v>
       </c>
@@ -1639,8 +1711,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>50553</v>
       </c>
@@ -1677,8 +1753,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>5071</v>
       </c>
@@ -1715,8 +1795,12 @@
         <f t="shared" si="1"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="10">
+        <f t="shared" si="2"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>4110</v>
       </c>
@@ -1753,8 +1837,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>4021</v>
       </c>
@@ -1791,8 +1879,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>4017</v>
       </c>
@@ -1829,8 +1921,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>828</v>
       </c>
@@ -1867,8 +1963,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>3083</v>
       </c>
@@ -1905,8 +2005,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
         <v>4013</v>
       </c>
@@ -1943,8 +2047,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
         <v>4015</v>
       </c>
@@ -1981,8 +2089,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
         <v>4092</v>
       </c>
@@ -2021,8 +2133,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2">
         <v>4101</v>
       </c>
@@ -2059,8 +2175,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
         <v>4118</v>
       </c>
@@ -2097,8 +2217,12 @@
         <f t="shared" si="1"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="10">
+        <f t="shared" si="2"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2">
         <v>4136</v>
       </c>
@@ -2135,8 +2259,12 @@
         <f t="shared" si="1"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="10">
+        <f t="shared" si="2"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2">
         <v>820</v>
       </c>
@@ -2173,8 +2301,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2">
         <v>833</v>
       </c>
@@ -2213,8 +2345,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
         <v>855</v>
       </c>
@@ -2244,15 +2380,19 @@
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="4">
-        <f t="shared" ref="K34:K65" si="2">(D34*I34*0.5)+(E34*I34)+(F34*I34)</f>
+        <f t="shared" ref="K34:K65" si="3">(D34*I34*0.5)+(E34*I34)+(F34*I34)</f>
         <v>49.5</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" ref="L34:L65" si="3">C34*I34</f>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <f t="shared" ref="L34:L65" si="4">C34*I34</f>
+        <v>279</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2">
         <v>899</v>
       </c>
@@ -2282,15 +2422,19 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.375</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="10">
+        <f t="shared" si="2"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="2">
         <v>1311</v>
       </c>
@@ -2320,15 +2464,19 @@
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="2">
         <v>3054</v>
       </c>
@@ -2358,15 +2506,19 @@
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="2">
         <v>3055</v>
       </c>
@@ -2396,15 +2548,19 @@
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="2">
         <v>3059</v>
       </c>
@@ -2434,15 +2590,19 @@
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="2">
         <v>3060</v>
       </c>
@@ -2472,15 +2632,19 @@
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L40" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2">
         <v>3066</v>
       </c>
@@ -2510,15 +2674,19 @@
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.375</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="10">
+        <f t="shared" si="2"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="2">
         <v>3073</v>
       </c>
@@ -2548,15 +2716,19 @@
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.375</v>
       </c>
       <c r="L42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="10">
+        <f t="shared" si="2"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="2">
         <v>3089</v>
       </c>
@@ -2588,15 +2760,19 @@
         <v>113</v>
       </c>
       <c r="K43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L43" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="2">
         <v>3093</v>
       </c>
@@ -2626,15 +2802,19 @@
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="2">
         <v>4006</v>
       </c>
@@ -2664,15 +2844,19 @@
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="2">
         <v>4081</v>
       </c>
@@ -2702,15 +2886,19 @@
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M46" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="2">
         <v>4106</v>
       </c>
@@ -2740,15 +2928,19 @@
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M47" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="2">
         <v>856</v>
       </c>
@@ -2778,15 +2970,19 @@
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2">
         <v>923</v>
       </c>
@@ -2816,15 +3012,19 @@
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M49" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2">
         <v>1050</v>
       </c>
@@ -2854,15 +3054,19 @@
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L50" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M50" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="2">
         <v>1298</v>
       </c>
@@ -2892,15 +3096,19 @@
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M51" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="2">
         <v>4119</v>
       </c>
@@ -2930,15 +3138,19 @@
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.375</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="10">
+        <f t="shared" si="2"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="2">
         <v>861</v>
       </c>
@@ -2968,15 +3180,19 @@
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M53" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="2">
         <v>999</v>
       </c>
@@ -3006,15 +3222,19 @@
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M54" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="2">
         <v>3004</v>
       </c>
@@ -3044,15 +3264,19 @@
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M55" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="2">
         <v>3082</v>
       </c>
@@ -3082,15 +3306,19 @@
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M56" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="2">
         <v>4033</v>
       </c>
@@ -3120,15 +3348,19 @@
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M57" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="2">
         <v>832</v>
       </c>
@@ -3158,15 +3390,19 @@
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M58" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="2">
         <v>947</v>
       </c>
@@ -3196,15 +3432,19 @@
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M59" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="2">
         <v>1073</v>
       </c>
@@ -3234,15 +3474,19 @@
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L60" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M60" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="2">
         <v>1421</v>
       </c>
@@ -3272,15 +3516,19 @@
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M61" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="2">
         <v>3020</v>
       </c>
@@ -3310,15 +3558,19 @@
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M62" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="2">
         <v>3042</v>
       </c>
@@ -3348,15 +3600,19 @@
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L63" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M63" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="2">
         <v>3049</v>
       </c>
@@ -3386,15 +3642,19 @@
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L64" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M64" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="2">
         <v>3079</v>
       </c>
@@ -3424,15 +3684,19 @@
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="M65" s="10">
+        <f t="shared" si="2"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="2">
         <v>4123</v>
       </c>
@@ -3462,15 +3726,19 @@
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="4">
-        <f t="shared" ref="K66:K97" si="4">(D66*I66*0.5)+(E66*I66)+(F66*I66)</f>
+        <f t="shared" ref="K66:K97" si="5">(D66*I66*0.5)+(E66*I66)+(F66*I66)</f>
         <v>45.375</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" ref="L66:L97" si="5">C66*I66</f>
+        <f t="shared" ref="L66:L97" si="6">C66*I66</f>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" s="10">
+        <f t="shared" si="2"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="2">
         <v>4131</v>
       </c>
@@ -3500,15 +3768,19 @@
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.375</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" s="10">
+        <f t="shared" ref="M67:M104" si="7">L67+K67</f>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="2">
         <v>9097</v>
       </c>
@@ -3538,15 +3810,19 @@
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M68" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="2">
         <v>910</v>
       </c>
@@ -3576,15 +3852,19 @@
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M69" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="2">
         <v>3000</v>
       </c>
@@ -3614,15 +3894,19 @@
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M70" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="2">
         <v>3006</v>
       </c>
@@ -3652,15 +3936,19 @@
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M71" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="2">
         <v>3011</v>
       </c>
@@ -3690,15 +3978,19 @@
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M72" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="2">
         <v>3022</v>
       </c>
@@ -3728,15 +4020,19 @@
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M73" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="2">
         <v>3048</v>
       </c>
@@ -3766,15 +4062,19 @@
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L74" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M74" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="2">
         <v>4025</v>
       </c>
@@ -3804,15 +4104,19 @@
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L75" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M75" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="2">
         <v>4102</v>
       </c>
@@ -3842,15 +4146,19 @@
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L76" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M76" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="2">
         <v>4113</v>
       </c>
@@ -3880,15 +4188,19 @@
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L77" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M77" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="2">
         <v>4121</v>
       </c>
@@ -3918,15 +4230,19 @@
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.375</v>
       </c>
       <c r="L78" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" s="10">
+        <f t="shared" si="7"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="2">
         <v>7051</v>
       </c>
@@ -3956,15 +4272,19 @@
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L79" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M79" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="2">
         <v>30023</v>
       </c>
@@ -3994,15 +4314,19 @@
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L80" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M80" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="2">
         <v>1045</v>
       </c>
@@ -4032,15 +4356,19 @@
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L81" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M81" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="2">
         <v>1068</v>
       </c>
@@ -4070,15 +4398,19 @@
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L82" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M82" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="2">
         <v>4093</v>
       </c>
@@ -4108,15 +4440,19 @@
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.375</v>
       </c>
       <c r="L83" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83" s="10">
+        <f t="shared" si="7"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="2">
         <v>4132</v>
       </c>
@@ -4146,15 +4482,19 @@
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.375</v>
       </c>
       <c r="L84" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84" s="10">
+        <f t="shared" si="7"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="2">
         <v>5057</v>
       </c>
@@ -4184,15 +4524,19 @@
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L85" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M85" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="2">
         <v>3026</v>
       </c>
@@ -4222,15 +4566,19 @@
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L86" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M86" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="2">
         <v>3043</v>
       </c>
@@ -4260,15 +4608,19 @@
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L87" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M87" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="2">
         <v>4128</v>
       </c>
@@ -4298,15 +4650,19 @@
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.375</v>
       </c>
       <c r="L88" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" s="10">
+        <f t="shared" si="7"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="2">
         <v>3057</v>
       </c>
@@ -4336,15 +4692,19 @@
       </c>
       <c r="J89" s="6"/>
       <c r="K89" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M89" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="2">
         <v>1023</v>
       </c>
@@ -4374,15 +4734,19 @@
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.375</v>
       </c>
       <c r="L90" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90" s="10">
+        <f t="shared" si="7"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="2">
         <v>1357</v>
       </c>
@@ -4412,15 +4776,19 @@
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L91" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M91" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="2">
         <v>3009</v>
       </c>
@@ -4450,15 +4818,19 @@
       </c>
       <c r="J92" s="6"/>
       <c r="K92" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L92" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M92" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="2">
         <v>3085</v>
       </c>
@@ -4488,15 +4860,19 @@
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L93" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M93" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="2">
         <v>4004</v>
       </c>
@@ -4526,15 +4902,19 @@
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L94" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M94" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="2">
         <v>4026</v>
       </c>
@@ -4564,15 +4944,19 @@
       </c>
       <c r="J95" s="6"/>
       <c r="K95" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.375</v>
       </c>
       <c r="L95" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95" s="10">
+        <f t="shared" si="7"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="2">
         <v>4036</v>
       </c>
@@ -4602,15 +4986,19 @@
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="L96" s="4">
-        <f t="shared" si="5"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="M96" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="2">
         <v>4077</v>
       </c>
@@ -4640,15 +5028,19 @@
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45.375</v>
       </c>
       <c r="L97" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>255.75</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97" s="10">
+        <f t="shared" si="7"/>
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="2">
         <v>4078</v>
       </c>
@@ -4678,15 +5070,19 @@
       </c>
       <c r="J98" s="6"/>
       <c r="K98" s="4">
-        <f t="shared" ref="K98:K104" si="6">(D98*I98*0.5)+(E98*I98)+(F98*I98)</f>
+        <f t="shared" ref="K98:K104" si="8">(D98*I98*0.5)+(E98*I98)+(F98*I98)</f>
         <v>49.5</v>
       </c>
       <c r="L98" s="4">
-        <f t="shared" ref="L98:L104" si="7">C98*I98</f>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <f t="shared" ref="L98:L104" si="9">C98*I98</f>
+        <v>279</v>
+      </c>
+      <c r="M98" s="10">
+        <f t="shared" si="7"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="2">
         <v>4138</v>
       </c>
@@ -4716,15 +5112,19 @@
       </c>
       <c r="J99" s="6"/>
       <c r="K99" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45.375</v>
       </c>
       <c r="L99" s="4">
+        <f t="shared" si="9"/>
+        <v>255.75</v>
+      </c>
+      <c r="M99" s="10">
         <f t="shared" si="7"/>
-        <v>255.75</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="2">
         <v>3052</v>
       </c>
@@ -4754,15 +5154,19 @@
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45.375</v>
       </c>
       <c r="L100" s="4">
+        <f t="shared" si="9"/>
+        <v>255.75</v>
+      </c>
+      <c r="M100" s="10">
         <f t="shared" si="7"/>
-        <v>255.75</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="2">
         <v>4084</v>
       </c>
@@ -4794,15 +5198,19 @@
         <v>100</v>
       </c>
       <c r="K101" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49.5</v>
       </c>
       <c r="L101" s="4">
+        <f t="shared" si="9"/>
+        <v>279</v>
+      </c>
+      <c r="M101" s="10">
         <f t="shared" si="7"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="2">
         <v>4038</v>
       </c>
@@ -4834,15 +5242,19 @@
         <v>98</v>
       </c>
       <c r="K102" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49.5</v>
       </c>
       <c r="L102" s="4">
+        <f t="shared" si="9"/>
+        <v>279</v>
+      </c>
+      <c r="M102" s="10">
         <f t="shared" si="7"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="2">
         <v>4111</v>
       </c>
@@ -4872,15 +5284,19 @@
       </c>
       <c r="J103" s="6"/>
       <c r="K103" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49.5</v>
       </c>
       <c r="L103" s="4">
+        <f t="shared" si="9"/>
+        <v>279</v>
+      </c>
+      <c r="M103" s="10">
         <f t="shared" si="7"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="2">
         <v>4124</v>
       </c>
@@ -4910,12 +5326,16 @@
       </c>
       <c r="J104" s="6"/>
       <c r="K104" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45.375</v>
       </c>
       <c r="L104" s="4">
+        <f t="shared" si="9"/>
+        <v>255.75</v>
+      </c>
+      <c r="M104" s="10">
         <f t="shared" si="7"/>
-        <v>255.75</v>
+        <v>301.125</v>
       </c>
     </row>
   </sheetData>

--- a/8-2025.xlsx
+++ b/8-2025.xlsx
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M1" sqref="A1:M104"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1004,10 +1004,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2">
-        <v>946</v>
+        <v>4012</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3">
         <v>31</v>
@@ -1022,21 +1022,21 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2" s="5">
         <v>8.25</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K33" si="0">(D2*I2*0.5)+(E2*I2)+(F2*I2)</f>
+        <f>(D2*I2*0.5)+(E2*I2)+(F2*I2)</f>
         <v>45.375</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" ref="L2:L33" si="1">C2*I2</f>
+        <f>C2*I2</f>
         <v>255.75</v>
       </c>
       <c r="M2" s="10">
@@ -1046,10 +1046,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
-        <v>1078</v>
+        <v>4009</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3">
         <v>31</v>
@@ -1064,34 +1064,34 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3" s="5">
         <v>9</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="4">
-        <f t="shared" si="0"/>
+        <f>(D3*I3*0.5)+(E3*I3)+(F3*I3)</f>
         <v>49.5</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" si="1"/>
+        <f>C3*I3</f>
         <v>279</v>
       </c>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:M66" si="2">L3+K3</f>
+        <f>L3+K3</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>3018</v>
+        <v>50553</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3">
         <v>31</v>
@@ -1106,34 +1106,34 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4" s="5">
         <v>9</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="4">
-        <f t="shared" si="0"/>
+        <f>(D4*I4*0.5)+(E4*I4)+(F4*I4)</f>
         <v>49.5</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" si="1"/>
+        <f>C4*I4</f>
         <v>279</v>
       </c>
       <c r="M4" s="10">
-        <f t="shared" si="2"/>
+        <f>L4+K4</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>4116</v>
+        <v>930</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C5" s="3">
         <v>31</v>
@@ -1148,34 +1148,34 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>45.375</v>
+        <f>(D5*I5*0.5)+(E5*I5)+(F5*I5)</f>
+        <v>49.5</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="1"/>
-        <v>255.75</v>
+        <f>C5*I5</f>
+        <v>279</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" si="2"/>
-        <v>301.125</v>
+        <f>L5+K5</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
-        <v>50507</v>
+        <v>1440</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>31</v>
@@ -1190,34 +1190,34 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I6" s="5">
         <v>9</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="4">
-        <f t="shared" si="0"/>
+        <f>(D6*I6*0.5)+(E6*I6)+(F6*I6)</f>
         <v>49.5</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="1"/>
+        <f>C6*I6</f>
         <v>279</v>
       </c>
       <c r="M6" s="10">
-        <f t="shared" si="2"/>
+        <f>L6+K6</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2">
-        <v>930</v>
+        <v>3015</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="3">
         <v>31</v>
@@ -1242,24 +1242,24 @@
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="4">
-        <f t="shared" si="0"/>
+        <f>(D7*I7*0.5)+(E7*I7)+(F7*I7)</f>
         <v>49.5</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="1"/>
+        <f>C7*I7</f>
         <v>279</v>
       </c>
       <c r="M7" s="10">
-        <f t="shared" si="2"/>
+        <f>L7+K7</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2">
-        <v>1440</v>
+        <v>3017</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <v>31</v>
@@ -1284,24 +1284,24 @@
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="4">
-        <f t="shared" si="0"/>
+        <f>(D8*I8*0.5)+(E8*I8)+(F8*I8)</f>
         <v>49.5</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="1"/>
+        <f>C8*I8</f>
         <v>279</v>
       </c>
       <c r="M8" s="10">
-        <f t="shared" si="2"/>
+        <f>L8+K8</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2">
-        <v>3015</v>
+        <v>3019</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3">
         <v>31</v>
@@ -1326,24 +1326,24 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="4">
-        <f t="shared" si="0"/>
+        <f>(D9*I9*0.5)+(E9*I9)+(F9*I9)</f>
         <v>49.5</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="1"/>
+        <f>C9*I9</f>
         <v>279</v>
       </c>
       <c r="M9" s="10">
-        <f t="shared" si="2"/>
+        <f>L9+K9</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2">
-        <v>3017</v>
+        <v>3039</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3">
         <v>31</v>
@@ -1368,24 +1368,24 @@
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="4">
-        <f t="shared" si="0"/>
+        <f>(D10*I10*0.5)+(E10*I10)+(F10*I10)</f>
         <v>49.5</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="1"/>
+        <f>C10*I10</f>
         <v>279</v>
       </c>
       <c r="M10" s="10">
-        <f t="shared" si="2"/>
+        <f>L10+K10</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2">
-        <v>3019</v>
+        <v>3058</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3">
         <v>31</v>
@@ -1410,24 +1410,24 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="4">
-        <f t="shared" si="0"/>
+        <f>(D11*I11*0.5)+(E11*I11)+(F11*I11)</f>
         <v>49.5</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="1"/>
+        <f>C11*I11</f>
         <v>279</v>
       </c>
       <c r="M11" s="10">
-        <f t="shared" si="2"/>
+        <f>L11+K11</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2">
-        <v>3039</v>
+        <v>3080</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3">
         <v>31</v>
@@ -1452,24 +1452,24 @@
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="4">
-        <f t="shared" si="0"/>
+        <f>(D12*I12*0.5)+(E12*I12)+(F12*I12)</f>
         <v>49.5</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="1"/>
+        <f>C12*I12</f>
         <v>279</v>
       </c>
       <c r="M12" s="10">
-        <f t="shared" si="2"/>
+        <f>L12+K12</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2">
-        <v>3058</v>
+        <v>4129</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3">
         <v>31</v>
@@ -1490,28 +1490,28 @@
         <v>85</v>
       </c>
       <c r="I13" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="4">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f>(D13*I13*0.5)+(E13*I13)+(F13*I13)</f>
+        <v>45.375</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="1"/>
-        <v>279</v>
+        <f>C13*I13</f>
+        <v>255.75</v>
       </c>
       <c r="M13" s="10">
-        <f t="shared" si="2"/>
-        <v>328.5</v>
+        <f>L13+K13</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
-        <v>3080</v>
+        <v>4134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3">
         <v>31</v>
@@ -1532,28 +1532,28 @@
         <v>85</v>
       </c>
       <c r="I14" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="4">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f>(D14*I14*0.5)+(E14*I14)+(F14*I14)</f>
+        <v>45.375</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="1"/>
-        <v>279</v>
+        <f>C14*I14</f>
+        <v>255.75</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" si="2"/>
-        <v>328.5</v>
+        <f>L14+K14</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2">
-        <v>4129</v>
+        <v>820</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
         <v>31</v>
@@ -1571,31 +1571,31 @@
         <v>126</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I15" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="4">
-        <f t="shared" si="0"/>
-        <v>45.375</v>
+        <f>(D15*I15*0.5)+(E15*I15)+(F15*I15)</f>
+        <v>49.5</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="1"/>
-        <v>255.75</v>
+        <f>C15*I15</f>
+        <v>279</v>
       </c>
       <c r="M15" s="10">
-        <f t="shared" si="2"/>
-        <v>301.125</v>
+        <f>L15+K15</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2">
-        <v>4134</v>
+        <v>833</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
         <v>31</v>
@@ -1613,31 +1613,33 @@
         <v>126</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I16" s="5">
-        <v>8.25</v>
-      </c>
-      <c r="J16" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="K16" s="4">
-        <f t="shared" si="0"/>
-        <v>45.375</v>
+        <f>(D16*I16*0.5)+(E16*I16)+(F16*I16)</f>
+        <v>49.5</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="1"/>
-        <v>255.75</v>
+        <f>C16*I16</f>
+        <v>279</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="2"/>
-        <v>301.125</v>
+        <f>L16+K16</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2">
-        <v>4012</v>
+        <v>855</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
         <v>31</v>
@@ -1652,34 +1654,34 @@
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I17" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="4">
-        <f t="shared" si="0"/>
-        <v>45.375</v>
+        <f>(D17*I17*0.5)+(E17*I17)+(F17*I17)</f>
+        <v>49.5</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="1"/>
-        <v>255.75</v>
+        <f>C17*I17</f>
+        <v>279</v>
       </c>
       <c r="M17" s="10">
-        <f t="shared" si="2"/>
-        <v>301.125</v>
+        <f>L17+K17</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2">
-        <v>4009</v>
+        <v>899</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3">
         <v>31</v>
@@ -1694,34 +1696,34 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I18" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="4">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f>(D18*I18*0.5)+(E18*I18)+(F18*I18)</f>
+        <v>45.375</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="1"/>
-        <v>279</v>
+        <f>C18*I18</f>
+        <v>255.75</v>
       </c>
       <c r="M18" s="10">
-        <f t="shared" si="2"/>
-        <v>328.5</v>
+        <f>L18+K18</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2">
-        <v>50553</v>
+        <v>1311</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3">
         <v>31</v>
@@ -1736,34 +1738,34 @@
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I19" s="5">
         <v>9</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="4">
-        <f t="shared" si="0"/>
+        <f>(D19*I19*0.5)+(E19*I19)+(F19*I19)</f>
         <v>49.5</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="1"/>
+        <f>C19*I19</f>
         <v>279</v>
       </c>
       <c r="M19" s="10">
-        <f t="shared" si="2"/>
+        <f>L19+K19</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2">
-        <v>5071</v>
+        <v>3054</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C20" s="3">
         <v>31</v>
@@ -1778,34 +1780,34 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I20" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="4">
-        <f t="shared" si="0"/>
-        <v>45.375</v>
+        <f>(D20*I20*0.5)+(E20*I20)+(F20*I20)</f>
+        <v>49.5</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="1"/>
-        <v>255.75</v>
+        <f>C20*I20</f>
+        <v>279</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" si="2"/>
-        <v>301.125</v>
+        <f>L20+K20</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2">
-        <v>4110</v>
+        <v>3055</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3">
         <v>31</v>
@@ -1820,34 +1822,34 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I21" s="5">
         <v>9</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="4">
-        <f t="shared" si="0"/>
+        <f>(D21*I21*0.5)+(E21*I21)+(F21*I21)</f>
         <v>49.5</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="1"/>
+        <f>C21*I21</f>
         <v>279</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="2"/>
+        <f>L21+K21</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2">
-        <v>4021</v>
+        <v>3059</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3">
         <v>31</v>
@@ -1862,34 +1864,34 @@
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I22" s="5">
         <v>9</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="4">
-        <f t="shared" si="0"/>
+        <f>(D22*I22*0.5)+(E22*I22)+(F22*I22)</f>
         <v>49.5</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="1"/>
+        <f>C22*I22</f>
         <v>279</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" si="2"/>
+        <f>L22+K22</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2">
-        <v>4017</v>
+        <v>3060</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C23" s="3">
         <v>31</v>
@@ -1904,34 +1906,34 @@
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I23" s="5">
         <v>9</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="4">
-        <f t="shared" si="0"/>
+        <f>(D23*I23*0.5)+(E23*I23)+(F23*I23)</f>
         <v>49.5</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="1"/>
+        <f>C23*I23</f>
         <v>279</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" si="2"/>
+        <f>L23+K23</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2">
-        <v>828</v>
+        <v>3066</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3">
         <v>31</v>
@@ -1946,34 +1948,34 @@
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I24" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="4">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f>(D24*I24*0.5)+(E24*I24)+(F24*I24)</f>
+        <v>45.375</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="1"/>
-        <v>279</v>
+        <f>C24*I24</f>
+        <v>255.75</v>
       </c>
       <c r="M24" s="10">
-        <f t="shared" si="2"/>
-        <v>328.5</v>
+        <f>L24+K24</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2">
-        <v>3083</v>
+        <v>3073</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3">
         <v>31</v>
@@ -1988,34 +1990,34 @@
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I25" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="4">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f>(D25*I25*0.5)+(E25*I25)+(F25*I25)</f>
+        <v>45.375</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="1"/>
-        <v>279</v>
+        <f>C25*I25</f>
+        <v>255.75</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" si="2"/>
-        <v>328.5</v>
+        <f>L25+K25</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2">
-        <v>4013</v>
+        <v>3089</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3">
         <v>31</v>
@@ -2030,34 +2032,36 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I26" s="5">
         <v>9</v>
       </c>
-      <c r="J26" s="6"/>
+      <c r="J26" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="K26" s="4">
-        <f t="shared" si="0"/>
+        <f>(D26*I26*0.5)+(E26*I26)+(F26*I26)</f>
         <v>49.5</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="1"/>
+        <f>C26*I26</f>
         <v>279</v>
       </c>
       <c r="M26" s="10">
-        <f t="shared" si="2"/>
+        <f>L26+K26</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2">
-        <v>4015</v>
+        <v>3093</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C27" s="3">
         <v>31</v>
@@ -2072,34 +2076,34 @@
         <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I27" s="5">
         <v>9</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="4">
-        <f t="shared" si="0"/>
+        <f>(D27*I27*0.5)+(E27*I27)+(F27*I27)</f>
         <v>49.5</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="1"/>
+        <f>C27*I27</f>
         <v>279</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="2"/>
+        <f>L27+K27</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2">
-        <v>4092</v>
+        <v>4006</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3">
         <v>31</v>
@@ -2114,36 +2118,34 @@
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" s="5">
         <v>9</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="J28" s="6"/>
       <c r="K28" s="4">
-        <f t="shared" si="0"/>
+        <f>(D28*I28*0.5)+(E28*I28)+(F28*I28)</f>
         <v>49.5</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="1"/>
+        <f>C28*I28</f>
         <v>279</v>
       </c>
       <c r="M28" s="10">
-        <f t="shared" si="2"/>
+        <f>L28+K28</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2">
-        <v>4101</v>
+        <v>4081</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3">
         <v>31</v>
@@ -2158,34 +2160,34 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I29" s="5">
         <v>9</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="4">
-        <f t="shared" si="0"/>
+        <f>(D29*I29*0.5)+(E29*I29)+(F29*I29)</f>
         <v>49.5</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="1"/>
+        <f>C29*I29</f>
         <v>279</v>
       </c>
       <c r="M29" s="10">
-        <f t="shared" si="2"/>
+        <f>L29+K29</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2">
-        <v>4118</v>
+        <v>4106</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C30" s="3">
         <v>31</v>
@@ -2200,26 +2202,26 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I30" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="4">
-        <f t="shared" si="0"/>
-        <v>45.375</v>
+        <f>(D30*I30*0.5)+(E30*I30)+(F30*I30)</f>
+        <v>49.5</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="1"/>
-        <v>255.75</v>
+        <f>C30*I30</f>
+        <v>279</v>
       </c>
       <c r="M30" s="10">
-        <f t="shared" si="2"/>
-        <v>301.125</v>
+        <f>L30+K30</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2252,24 +2254,24 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="4">
-        <f t="shared" si="0"/>
+        <f>(D31*I31*0.5)+(E31*I31)+(F31*I31)</f>
         <v>45.375</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="1"/>
+        <f>C31*I31</f>
         <v>255.75</v>
       </c>
       <c r="M31" s="10">
-        <f t="shared" si="2"/>
+        <f>L31+K31</f>
         <v>301.125</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2">
-        <v>820</v>
+        <v>946</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C32" s="3">
         <v>31</v>
@@ -2284,34 +2286,34 @@
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I32" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="4">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f>(D32*I32*0.5)+(E32*I32)+(F32*I32)</f>
+        <v>45.375</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="1"/>
-        <v>279</v>
+        <f>C32*I32</f>
+        <v>255.75</v>
       </c>
       <c r="M32" s="10">
-        <f t="shared" si="2"/>
-        <v>328.5</v>
+        <f>L32+K32</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2">
-        <v>833</v>
+        <v>1078</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="C33" s="3">
         <v>31</v>
@@ -2326,36 +2328,34 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I33" s="5">
         <v>9</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="J33" s="6"/>
       <c r="K33" s="4">
-        <f t="shared" si="0"/>
+        <f>(D33*I33*0.5)+(E33*I33)+(F33*I33)</f>
         <v>49.5</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="1"/>
+        <f>C33*I33</f>
         <v>279</v>
       </c>
       <c r="M33" s="10">
-        <f t="shared" si="2"/>
+        <f>L33+K33</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2">
-        <v>855</v>
+        <v>3018</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C34" s="3">
         <v>31</v>
@@ -2370,34 +2370,34 @@
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I34" s="5">
         <v>9</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="4">
-        <f t="shared" ref="K34:K65" si="3">(D34*I34*0.5)+(E34*I34)+(F34*I34)</f>
+        <f>(D34*I34*0.5)+(E34*I34)+(F34*I34)</f>
         <v>49.5</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" ref="L34:L65" si="4">C34*I34</f>
+        <f>C34*I34</f>
         <v>279</v>
       </c>
       <c r="M34" s="10">
-        <f t="shared" si="2"/>
+        <f>L34+K34</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2">
-        <v>899</v>
+        <v>4116</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C35" s="3">
         <v>31</v>
@@ -2412,34 +2412,34 @@
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I35" s="5">
         <v>8.25</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="4">
-        <f t="shared" si="3"/>
+        <f>(D35*I35*0.5)+(E35*I35)+(F35*I35)</f>
         <v>45.375</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="4"/>
+        <f>C35*I35</f>
         <v>255.75</v>
       </c>
       <c r="M35" s="10">
-        <f t="shared" si="2"/>
+        <f>L35+K35</f>
         <v>301.125</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2">
-        <v>1311</v>
+        <v>50507</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="C36" s="3">
         <v>31</v>
@@ -2454,34 +2454,34 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I36" s="5">
         <v>9</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="4">
-        <f t="shared" si="3"/>
+        <f>(D36*I36*0.5)+(E36*I36)+(F36*I36)</f>
         <v>49.5</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="4"/>
+        <f>C36*I36</f>
         <v>279</v>
       </c>
       <c r="M36" s="10">
-        <f t="shared" si="2"/>
+        <f>L36+K36</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2">
-        <v>3054</v>
+        <v>5071</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C37" s="3">
         <v>31</v>
@@ -2496,34 +2496,34 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I37" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="4">
-        <f t="shared" si="3"/>
-        <v>49.5</v>
+        <f>(D37*I37*0.5)+(E37*I37)+(F37*I37)</f>
+        <v>45.375</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="4"/>
-        <v>279</v>
+        <f>C37*I37</f>
+        <v>255.75</v>
       </c>
       <c r="M37" s="10">
-        <f t="shared" si="2"/>
-        <v>328.5</v>
+        <f>L37+K37</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2">
-        <v>3055</v>
+        <v>4110</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C38" s="3">
         <v>31</v>
@@ -2538,34 +2538,34 @@
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I38" s="5">
         <v>9</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="4">
-        <f t="shared" si="3"/>
+        <f>(D38*I38*0.5)+(E38*I38)+(F38*I38)</f>
         <v>49.5</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" si="4"/>
+        <f>C38*I38</f>
         <v>279</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" si="2"/>
+        <f>L38+K38</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3">
         <v>31</v>
@@ -2580,34 +2580,34 @@
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I39" s="5">
         <v>9</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="4">
-        <f t="shared" si="3"/>
+        <f>(D39*I39*0.5)+(E39*I39)+(F39*I39)</f>
         <v>49.5</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="4"/>
+        <f>C39*I39</f>
         <v>279</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" si="2"/>
+        <f>L39+K39</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2">
-        <v>3060</v>
+        <v>1023</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C40" s="3">
         <v>31</v>
@@ -2622,34 +2622,34 @@
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I40" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="4">
-        <f t="shared" si="3"/>
-        <v>49.5</v>
+        <f>(D40*I40*0.5)+(E40*I40)+(F40*I40)</f>
+        <v>45.375</v>
       </c>
       <c r="L40" s="4">
-        <f t="shared" si="4"/>
-        <v>279</v>
+        <f>C40*I40</f>
+        <v>255.75</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="2"/>
-        <v>328.5</v>
+        <f>L40+K40</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2">
-        <v>3066</v>
+        <v>1357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C41" s="3">
         <v>31</v>
@@ -2664,34 +2664,34 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I41" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="4">
-        <f t="shared" si="3"/>
-        <v>45.375</v>
+        <f>(D41*I41*0.5)+(E41*I41)+(F41*I41)</f>
+        <v>49.5</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="4"/>
-        <v>255.75</v>
+        <f>C41*I41</f>
+        <v>279</v>
       </c>
       <c r="M41" s="10">
-        <f t="shared" si="2"/>
-        <v>301.125</v>
+        <f>L41+K41</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="2">
-        <v>3073</v>
+        <v>3009</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C42" s="3">
         <v>31</v>
@@ -2706,34 +2706,34 @@
         <v>1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I42" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="4">
-        <f t="shared" si="3"/>
-        <v>45.375</v>
+        <f>(D42*I42*0.5)+(E42*I42)+(F42*I42)</f>
+        <v>49.5</v>
       </c>
       <c r="L42" s="4">
-        <f t="shared" si="4"/>
-        <v>255.75</v>
+        <f>C42*I42</f>
+        <v>279</v>
       </c>
       <c r="M42" s="10">
-        <f t="shared" si="2"/>
-        <v>301.125</v>
+        <f>L42+K42</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="3">
         <v>31</v>
@@ -2748,36 +2748,34 @@
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I43" s="5">
         <v>9</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="J43" s="6"/>
       <c r="K43" s="4">
-        <f t="shared" si="3"/>
+        <f>(D43*I43*0.5)+(E43*I43)+(F43*I43)</f>
         <v>49.5</v>
       </c>
       <c r="L43" s="4">
-        <f t="shared" si="4"/>
+        <f>C43*I43</f>
         <v>279</v>
       </c>
       <c r="M43" s="10">
-        <f t="shared" si="2"/>
+        <f>L43+K43</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="2">
-        <v>3093</v>
+        <v>4004</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3">
         <v>31</v>
@@ -2792,34 +2790,34 @@
         <v>1</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I44" s="5">
         <v>9</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="4">
-        <f t="shared" si="3"/>
+        <f>(D44*I44*0.5)+(E44*I44)+(F44*I44)</f>
         <v>49.5</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="4"/>
+        <f>C44*I44</f>
         <v>279</v>
       </c>
       <c r="M44" s="10">
-        <f t="shared" si="2"/>
+        <f>L44+K44</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="2">
-        <v>4006</v>
+        <v>4026</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C45" s="3">
         <v>31</v>
@@ -2834,34 +2832,34 @@
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I45" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="4">
-        <f t="shared" si="3"/>
-        <v>49.5</v>
+        <f>(D45*I45*0.5)+(E45*I45)+(F45*I45)</f>
+        <v>45.375</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="4"/>
-        <v>279</v>
+        <f>C45*I45</f>
+        <v>255.75</v>
       </c>
       <c r="M45" s="10">
-        <f t="shared" si="2"/>
-        <v>328.5</v>
+        <f>L45+K45</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="2">
-        <v>4081</v>
+        <v>4036</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C46" s="3">
         <v>31</v>
@@ -2876,34 +2874,34 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I46" s="5">
         <v>9</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="4">
-        <f t="shared" si="3"/>
+        <f>(D46*I46*0.5)+(E46*I46)+(F46*I46)</f>
         <v>49.5</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="4"/>
+        <f>C46*I46</f>
         <v>279</v>
       </c>
       <c r="M46" s="10">
-        <f t="shared" si="2"/>
+        <f>L46+K46</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="2">
-        <v>4106</v>
+        <v>4077</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3">
         <v>31</v>
@@ -2918,34 +2916,34 @@
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I47" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="4">
-        <f t="shared" si="3"/>
-        <v>49.5</v>
+        <f>(D47*I47*0.5)+(E47*I47)+(F47*I47)</f>
+        <v>45.375</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="4"/>
-        <v>279</v>
+        <f>C47*I47</f>
+        <v>255.75</v>
       </c>
       <c r="M47" s="10">
-        <f t="shared" si="2"/>
-        <v>328.5</v>
+        <f>L47+K47</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="2">
-        <v>856</v>
+        <v>4078</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3">
         <v>31</v>
@@ -2960,34 +2958,34 @@
         <v>1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I48" s="5">
         <v>9</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="4">
-        <f t="shared" si="3"/>
+        <f>(D48*I48*0.5)+(E48*I48)+(F48*I48)</f>
         <v>49.5</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="4"/>
+        <f>C48*I48</f>
         <v>279</v>
       </c>
       <c r="M48" s="10">
-        <f t="shared" si="2"/>
+        <f>L48+K48</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="2">
-        <v>923</v>
+        <v>4138</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C49" s="3">
         <v>31</v>
@@ -3002,34 +3000,34 @@
         <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I49" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="4">
-        <f t="shared" si="3"/>
-        <v>49.5</v>
+        <f>(D49*I49*0.5)+(E49*I49)+(F49*I49)</f>
+        <v>45.375</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="4"/>
-        <v>279</v>
+        <f>C49*I49</f>
+        <v>255.75</v>
       </c>
       <c r="M49" s="10">
-        <f t="shared" si="2"/>
-        <v>328.5</v>
+        <f>L49+K49</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="2">
-        <v>1050</v>
+        <v>3026</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C50" s="3">
         <v>31</v>
@@ -3047,31 +3045,31 @@
         <v>139</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I50" s="5">
         <v>9</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="4">
-        <f t="shared" si="3"/>
+        <f>(D50*I50*0.5)+(E50*I50)+(F50*I50)</f>
         <v>49.5</v>
       </c>
       <c r="L50" s="4">
-        <f t="shared" si="4"/>
+        <f>C50*I50</f>
         <v>279</v>
       </c>
       <c r="M50" s="10">
-        <f t="shared" si="2"/>
+        <f>L50+K50</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2">
-        <v>1298</v>
+        <v>3043</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C51" s="3">
         <v>31</v>
@@ -3089,31 +3087,31 @@
         <v>139</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I51" s="5">
         <v>9</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="4">
-        <f t="shared" si="3"/>
+        <f>(D51*I51*0.5)+(E51*I51)+(F51*I51)</f>
         <v>49.5</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="4"/>
+        <f>C51*I51</f>
         <v>279</v>
       </c>
       <c r="M51" s="10">
-        <f t="shared" si="2"/>
+        <f>L51+K51</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="2">
-        <v>4119</v>
+        <v>4128</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C52" s="3">
         <v>31</v>
@@ -3131,31 +3129,31 @@
         <v>139</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I52" s="5">
         <v>8.25</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="4">
-        <f t="shared" si="3"/>
+        <f>(D52*I52*0.5)+(E52*I52)+(F52*I52)</f>
         <v>45.375</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="4"/>
+        <f>C52*I52</f>
         <v>255.75</v>
       </c>
       <c r="M52" s="10">
-        <f t="shared" si="2"/>
+        <f>L52+K52</f>
         <v>301.125</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="2">
-        <v>861</v>
+        <v>923</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C53" s="3">
         <v>31</v>
@@ -3170,34 +3168,34 @@
         <v>1</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I53" s="5">
         <v>9</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="4">
-        <f t="shared" si="3"/>
+        <f>(D53*I53*0.5)+(E53*I53)+(F53*I53)</f>
         <v>49.5</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="4"/>
+        <f>C53*I53</f>
         <v>279</v>
       </c>
       <c r="M53" s="10">
-        <f t="shared" si="2"/>
+        <f>L53+K53</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="2">
-        <v>999</v>
+        <v>1050</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C54" s="3">
         <v>31</v>
@@ -3212,34 +3210,34 @@
         <v>1</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I54" s="5">
         <v>9</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="4">
-        <f t="shared" si="3"/>
+        <f>(D54*I54*0.5)+(E54*I54)+(F54*I54)</f>
         <v>49.5</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="4"/>
+        <f>C54*I54</f>
         <v>279</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" si="2"/>
+        <f>L54+K54</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="2">
-        <v>3004</v>
+        <v>1298</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C55" s="3">
         <v>31</v>
@@ -3254,34 +3252,34 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I55" s="5">
         <v>9</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="4">
-        <f t="shared" si="3"/>
+        <f>(D55*I55*0.5)+(E55*I55)+(F55*I55)</f>
         <v>49.5</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="4"/>
+        <f>C55*I55</f>
         <v>279</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" si="2"/>
+        <f>L55+K55</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="2">
-        <v>3082</v>
+        <v>4119</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C56" s="3">
         <v>31</v>
@@ -3296,34 +3294,34 @@
         <v>1</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I56" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="4">
-        <f t="shared" si="3"/>
-        <v>49.5</v>
+        <f>(D56*I56*0.5)+(E56*I56)+(F56*I56)</f>
+        <v>45.375</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="4"/>
-        <v>279</v>
+        <f>C56*I56</f>
+        <v>255.75</v>
       </c>
       <c r="M56" s="10">
-        <f t="shared" si="2"/>
-        <v>328.5</v>
+        <f>L56+K56</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="2">
-        <v>4033</v>
+        <v>832</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C57" s="3">
         <v>31</v>
@@ -3338,34 +3336,34 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I57" s="5">
         <v>9</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="4">
-        <f t="shared" si="3"/>
+        <f>(D57*I57*0.5)+(E57*I57)+(F57*I57)</f>
         <v>49.5</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="4"/>
+        <f>C57*I57</f>
         <v>279</v>
       </c>
       <c r="M57" s="10">
-        <f t="shared" si="2"/>
+        <f>L57+K57</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="2">
-        <v>832</v>
+        <v>947</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="C58" s="3">
         <v>31</v>
@@ -3390,24 +3388,24 @@
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="4">
-        <f t="shared" si="3"/>
+        <f>(D58*I58*0.5)+(E58*I58)+(F58*I58)</f>
         <v>49.5</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="4"/>
+        <f>C58*I58</f>
         <v>279</v>
       </c>
       <c r="M58" s="10">
-        <f t="shared" si="2"/>
+        <f>L58+K58</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="2">
-        <v>947</v>
+        <v>1073</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="3">
         <v>31</v>
@@ -3432,24 +3430,24 @@
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="4">
-        <f t="shared" si="3"/>
+        <f>(D59*I59*0.5)+(E59*I59)+(F59*I59)</f>
         <v>49.5</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="4"/>
+        <f>C59*I59</f>
         <v>279</v>
       </c>
       <c r="M59" s="10">
-        <f t="shared" si="2"/>
+        <f>L59+K59</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="2">
-        <v>1073</v>
+        <v>1421</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C60" s="3">
         <v>31</v>
@@ -3474,24 +3472,24 @@
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="4">
-        <f t="shared" si="3"/>
+        <f>(D60*I60*0.5)+(E60*I60)+(F60*I60)</f>
         <v>49.5</v>
       </c>
       <c r="L60" s="4">
-        <f t="shared" si="4"/>
+        <f>C60*I60</f>
         <v>279</v>
       </c>
       <c r="M60" s="10">
-        <f t="shared" si="2"/>
+        <f>L60+K60</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="2">
-        <v>1421</v>
+        <v>3020</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="C61" s="3">
         <v>31</v>
@@ -3516,24 +3514,24 @@
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="4">
-        <f t="shared" si="3"/>
+        <f>(D61*I61*0.5)+(E61*I61)+(F61*I61)</f>
         <v>49.5</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="4"/>
+        <f>C61*I61</f>
         <v>279</v>
       </c>
       <c r="M61" s="10">
-        <f t="shared" si="2"/>
+        <f>L61+K61</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="2">
-        <v>3020</v>
+        <v>3042</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="C62" s="3">
         <v>31</v>
@@ -3558,24 +3556,24 @@
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="4">
-        <f t="shared" si="3"/>
+        <f>(D62*I62*0.5)+(E62*I62)+(F62*I62)</f>
         <v>49.5</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="4"/>
+        <f>C62*I62</f>
         <v>279</v>
       </c>
       <c r="M62" s="10">
-        <f t="shared" si="2"/>
+        <f>L62+K62</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="2">
-        <v>3042</v>
+        <v>3049</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C63" s="3">
         <v>31</v>
@@ -3600,24 +3598,24 @@
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="4">
-        <f t="shared" si="3"/>
+        <f>(D63*I63*0.5)+(E63*I63)+(F63*I63)</f>
         <v>49.5</v>
       </c>
       <c r="L63" s="4">
-        <f t="shared" si="4"/>
+        <f>C63*I63</f>
         <v>279</v>
       </c>
       <c r="M63" s="10">
-        <f t="shared" si="2"/>
+        <f>L63+K63</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="2">
-        <v>3049</v>
+        <v>3079</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C64" s="3">
         <v>31</v>
@@ -3642,24 +3640,24 @@
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="4">
-        <f t="shared" si="3"/>
+        <f>(D64*I64*0.5)+(E64*I64)+(F64*I64)</f>
         <v>49.5</v>
       </c>
       <c r="L64" s="4">
-        <f t="shared" si="4"/>
+        <f>C64*I64</f>
         <v>279</v>
       </c>
       <c r="M64" s="10">
-        <f t="shared" si="2"/>
+        <f>L64+K64</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="2">
-        <v>3079</v>
+        <v>4123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C65" s="3">
         <v>31</v>
@@ -3680,28 +3678,28 @@
         <v>91</v>
       </c>
       <c r="I65" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="4">
-        <f t="shared" si="3"/>
-        <v>49.5</v>
+        <f>(D65*I65*0.5)+(E65*I65)+(F65*I65)</f>
+        <v>45.375</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" si="4"/>
-        <v>279</v>
+        <f>C65*I65</f>
+        <v>255.75</v>
       </c>
       <c r="M65" s="10">
-        <f t="shared" si="2"/>
-        <v>328.5</v>
+        <f>L65+K65</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2">
-        <v>4123</v>
+        <v>4131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C66" s="3">
         <v>31</v>
@@ -3726,24 +3724,24 @@
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="4">
-        <f t="shared" ref="K66:K97" si="5">(D66*I66*0.5)+(E66*I66)+(F66*I66)</f>
+        <f>(D66*I66*0.5)+(E66*I66)+(F66*I66)</f>
         <v>45.375</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" ref="L66:L97" si="6">C66*I66</f>
+        <f>C66*I66</f>
         <v>255.75</v>
       </c>
       <c r="M66" s="10">
-        <f t="shared" si="2"/>
+        <f>L66+K66</f>
         <v>301.125</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="2">
-        <v>4131</v>
+        <v>9097</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C67" s="3">
         <v>31</v>
@@ -3764,28 +3762,28 @@
         <v>91</v>
       </c>
       <c r="I67" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="4">
-        <f t="shared" si="5"/>
-        <v>45.375</v>
+        <f>(D67*I67*0.5)+(E67*I67)+(F67*I67)</f>
+        <v>49.5</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" si="6"/>
-        <v>255.75</v>
+        <f>C67*I67</f>
+        <v>279</v>
       </c>
       <c r="M67" s="10">
-        <f t="shared" ref="M67:M104" si="7">L67+K67</f>
-        <v>301.125</v>
+        <f>L67+K67</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="2">
-        <v>9097</v>
+        <v>4021</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C68" s="3">
         <v>31</v>
@@ -3800,34 +3798,34 @@
         <v>1</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I68" s="5">
         <v>9</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="4">
-        <f t="shared" si="5"/>
+        <f>(D68*I68*0.5)+(E68*I68)+(F68*I68)</f>
         <v>49.5</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="6"/>
+        <f>C68*I68</f>
         <v>279</v>
       </c>
       <c r="M68" s="10">
-        <f t="shared" si="7"/>
+        <f>L68+K68</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="2">
-        <v>910</v>
+        <v>4017</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C69" s="3">
         <v>31</v>
@@ -3842,34 +3840,34 @@
         <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I69" s="5">
         <v>9</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="4">
-        <f t="shared" si="5"/>
+        <f>(D69*I69*0.5)+(E69*I69)+(F69*I69)</f>
         <v>49.5</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" si="6"/>
+        <f>C69*I69</f>
         <v>279</v>
       </c>
       <c r="M69" s="10">
-        <f t="shared" si="7"/>
+        <f>L69+K69</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="2">
-        <v>3000</v>
+        <v>828</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C70" s="3">
         <v>31</v>
@@ -3884,34 +3882,34 @@
         <v>1</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I70" s="5">
         <v>9</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="4">
-        <f t="shared" si="5"/>
+        <f>(D70*I70*0.5)+(E70*I70)+(F70*I70)</f>
         <v>49.5</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" si="6"/>
+        <f>C70*I70</f>
         <v>279</v>
       </c>
       <c r="M70" s="10">
-        <f t="shared" si="7"/>
+        <f>L70+K70</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="2">
-        <v>3006</v>
+        <v>3083</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C71" s="3">
         <v>31</v>
@@ -3926,34 +3924,34 @@
         <v>1</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I71" s="5">
         <v>9</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="4">
-        <f t="shared" si="5"/>
+        <f>(D71*I71*0.5)+(E71*I71)+(F71*I71)</f>
         <v>49.5</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" si="6"/>
+        <f>C71*I71</f>
         <v>279</v>
       </c>
       <c r="M71" s="10">
-        <f t="shared" si="7"/>
+        <f>L71+K71</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="2">
-        <v>3011</v>
+        <v>3052</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C72" s="3">
         <v>31</v>
@@ -3968,34 +3966,34 @@
         <v>1</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I72" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="4">
-        <f t="shared" si="5"/>
-        <v>49.5</v>
+        <f>(D72*I72*0.5)+(E72*I72)+(F72*I72)</f>
+        <v>45.375</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" si="6"/>
-        <v>279</v>
+        <f>C72*I72</f>
+        <v>255.75</v>
       </c>
       <c r="M72" s="10">
-        <f t="shared" si="7"/>
-        <v>328.5</v>
+        <f>L72+K72</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="2">
-        <v>3022</v>
+        <v>4084</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C73" s="3">
         <v>31</v>
@@ -4010,34 +4008,36 @@
         <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I73" s="5">
         <v>9</v>
       </c>
-      <c r="J73" s="6"/>
+      <c r="J73" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="K73" s="4">
-        <f t="shared" si="5"/>
+        <f>(D73*I73*0.5)+(E73*I73)+(F73*I73)</f>
         <v>49.5</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" si="6"/>
+        <f>C73*I73</f>
         <v>279</v>
       </c>
       <c r="M73" s="10">
-        <f t="shared" si="7"/>
+        <f>L73+K73</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="2">
-        <v>3048</v>
+        <v>910</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C74" s="3">
         <v>31</v>
@@ -4062,24 +4062,24 @@
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="4">
-        <f t="shared" si="5"/>
+        <f>(D74*I74*0.5)+(E74*I74)+(F74*I74)</f>
         <v>49.5</v>
       </c>
       <c r="L74" s="4">
-        <f t="shared" si="6"/>
+        <f>C74*I74</f>
         <v>279</v>
       </c>
       <c r="M74" s="10">
-        <f t="shared" si="7"/>
+        <f>L74+K74</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="2">
-        <v>4025</v>
+        <v>3000</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C75" s="3">
         <v>31</v>
@@ -4104,24 +4104,24 @@
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="4">
-        <f t="shared" si="5"/>
+        <f>(D75*I75*0.5)+(E75*I75)+(F75*I75)</f>
         <v>49.5</v>
       </c>
       <c r="L75" s="4">
-        <f t="shared" si="6"/>
+        <f>C75*I75</f>
         <v>279</v>
       </c>
       <c r="M75" s="10">
-        <f t="shared" si="7"/>
+        <f>L75+K75</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="2">
-        <v>4102</v>
+        <v>3006</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C76" s="3">
         <v>31</v>
@@ -4146,24 +4146,24 @@
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="4">
-        <f t="shared" si="5"/>
+        <f>(D76*I76*0.5)+(E76*I76)+(F76*I76)</f>
         <v>49.5</v>
       </c>
       <c r="L76" s="4">
-        <f t="shared" si="6"/>
+        <f>C76*I76</f>
         <v>279</v>
       </c>
       <c r="M76" s="10">
-        <f t="shared" si="7"/>
+        <f>L76+K76</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="2">
-        <v>4113</v>
+        <v>3011</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C77" s="3">
         <v>31</v>
@@ -4188,24 +4188,24 @@
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="4">
-        <f t="shared" si="5"/>
+        <f>(D77*I77*0.5)+(E77*I77)+(F77*I77)</f>
         <v>49.5</v>
       </c>
       <c r="L77" s="4">
-        <f t="shared" si="6"/>
+        <f>C77*I77</f>
         <v>279</v>
       </c>
       <c r="M77" s="10">
-        <f t="shared" si="7"/>
+        <f>L77+K77</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="2">
-        <v>4121</v>
+        <v>3022</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C78" s="3">
         <v>31</v>
@@ -4226,28 +4226,28 @@
         <v>92</v>
       </c>
       <c r="I78" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="4">
-        <f t="shared" si="5"/>
-        <v>45.375</v>
+        <f>(D78*I78*0.5)+(E78*I78)+(F78*I78)</f>
+        <v>49.5</v>
       </c>
       <c r="L78" s="4">
-        <f t="shared" si="6"/>
-        <v>255.75</v>
+        <f>C78*I78</f>
+        <v>279</v>
       </c>
       <c r="M78" s="10">
-        <f t="shared" si="7"/>
-        <v>301.125</v>
+        <f>L78+K78</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="2">
-        <v>7051</v>
+        <v>3048</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C79" s="3">
         <v>31</v>
@@ -4272,24 +4272,24 @@
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="4">
-        <f t="shared" si="5"/>
+        <f>(D79*I79*0.5)+(E79*I79)+(F79*I79)</f>
         <v>49.5</v>
       </c>
       <c r="L79" s="4">
-        <f t="shared" si="6"/>
+        <f>C79*I79</f>
         <v>279</v>
       </c>
       <c r="M79" s="10">
-        <f t="shared" si="7"/>
+        <f>L79+K79</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="2">
-        <v>30023</v>
+        <v>4025</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C80" s="3">
         <v>31</v>
@@ -4314,24 +4314,24 @@
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="4">
-        <f t="shared" si="5"/>
+        <f>(D80*I80*0.5)+(E80*I80)+(F80*I80)</f>
         <v>49.5</v>
       </c>
       <c r="L80" s="4">
-        <f t="shared" si="6"/>
+        <f>C80*I80</f>
         <v>279</v>
       </c>
       <c r="M80" s="10">
-        <f t="shared" si="7"/>
+        <f>L80+K80</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="2">
-        <v>1045</v>
+        <v>4102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C81" s="3">
         <v>31</v>
@@ -4346,34 +4346,34 @@
         <v>1</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I81" s="5">
         <v>9</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="4">
-        <f t="shared" si="5"/>
+        <f>(D81*I81*0.5)+(E81*I81)+(F81*I81)</f>
         <v>49.5</v>
       </c>
       <c r="L81" s="4">
-        <f t="shared" si="6"/>
+        <f>C81*I81</f>
         <v>279</v>
       </c>
       <c r="M81" s="10">
-        <f t="shared" si="7"/>
+        <f>L81+K81</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="2">
-        <v>1068</v>
+        <v>4113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C82" s="3">
         <v>31</v>
@@ -4388,34 +4388,34 @@
         <v>1</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I82" s="5">
         <v>9</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="4">
-        <f t="shared" si="5"/>
+        <f>(D82*I82*0.5)+(E82*I82)+(F82*I82)</f>
         <v>49.5</v>
       </c>
       <c r="L82" s="4">
-        <f t="shared" si="6"/>
+        <f>C82*I82</f>
         <v>279</v>
       </c>
       <c r="M82" s="10">
-        <f t="shared" si="7"/>
+        <f>L82+K82</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="2">
-        <v>4093</v>
+        <v>4121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C83" s="3">
         <v>31</v>
@@ -4430,34 +4430,34 @@
         <v>1</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I83" s="5">
         <v>8.25</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="4">
-        <f t="shared" si="5"/>
+        <f>(D83*I83*0.5)+(E83*I83)+(F83*I83)</f>
         <v>45.375</v>
       </c>
       <c r="L83" s="4">
-        <f t="shared" si="6"/>
+        <f>C83*I83</f>
         <v>255.75</v>
       </c>
       <c r="M83" s="10">
-        <f t="shared" si="7"/>
+        <f>L83+K83</f>
         <v>301.125</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="2">
-        <v>4132</v>
+        <v>7051</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C84" s="3">
         <v>31</v>
@@ -4472,34 +4472,34 @@
         <v>1</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I84" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="4">
-        <f t="shared" si="5"/>
-        <v>45.375</v>
+        <f>(D84*I84*0.5)+(E84*I84)+(F84*I84)</f>
+        <v>49.5</v>
       </c>
       <c r="L84" s="4">
-        <f t="shared" si="6"/>
-        <v>255.75</v>
+        <f>C84*I84</f>
+        <v>279</v>
       </c>
       <c r="M84" s="10">
-        <f t="shared" si="7"/>
-        <v>301.125</v>
+        <f>L84+K84</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="2">
-        <v>5057</v>
+        <v>30023</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C85" s="3">
         <v>31</v>
@@ -4514,34 +4514,34 @@
         <v>1</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I85" s="5">
         <v>9</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="4">
-        <f t="shared" si="5"/>
+        <f>(D85*I85*0.5)+(E85*I85)+(F85*I85)</f>
         <v>49.5</v>
       </c>
       <c r="L85" s="4">
-        <f t="shared" si="6"/>
+        <f>C85*I85</f>
         <v>279</v>
       </c>
       <c r="M85" s="10">
-        <f t="shared" si="7"/>
+        <f>L85+K85</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="2">
-        <v>3026</v>
+        <v>4013</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C86" s="3">
         <v>31</v>
@@ -4556,34 +4556,34 @@
         <v>1</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I86" s="5">
         <v>9</v>
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="4">
-        <f t="shared" si="5"/>
+        <f>(D86*I86*0.5)+(E86*I86)+(F86*I86)</f>
         <v>49.5</v>
       </c>
       <c r="L86" s="4">
-        <f t="shared" si="6"/>
+        <f>C86*I86</f>
         <v>279</v>
       </c>
       <c r="M86" s="10">
-        <f t="shared" si="7"/>
+        <f>L86+K86</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="2">
-        <v>3043</v>
+        <v>4015</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C87" s="3">
         <v>31</v>
@@ -4598,34 +4598,34 @@
         <v>1</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I87" s="5">
         <v>9</v>
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="4">
-        <f t="shared" si="5"/>
+        <f>(D87*I87*0.5)+(E87*I87)+(F87*I87)</f>
         <v>49.5</v>
       </c>
       <c r="L87" s="4">
-        <f t="shared" si="6"/>
+        <f>C87*I87</f>
         <v>279</v>
       </c>
       <c r="M87" s="10">
-        <f t="shared" si="7"/>
+        <f>L87+K87</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="2">
-        <v>4128</v>
+        <v>4092</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C88" s="3">
         <v>31</v>
@@ -4640,34 +4640,36 @@
         <v>1</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I88" s="5">
-        <v>8.25</v>
-      </c>
-      <c r="J88" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="K88" s="4">
-        <f t="shared" si="5"/>
-        <v>45.375</v>
+        <f>(D88*I88*0.5)+(E88*I88)+(F88*I88)</f>
+        <v>49.5</v>
       </c>
       <c r="L88" s="4">
-        <f t="shared" si="6"/>
-        <v>255.75</v>
+        <f>C88*I88</f>
+        <v>279</v>
       </c>
       <c r="M88" s="10">
-        <f t="shared" si="7"/>
-        <v>301.125</v>
+        <f>L88+K88</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="2">
-        <v>3057</v>
+        <v>4101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C89" s="3">
         <v>31</v>
@@ -4682,34 +4684,34 @@
         <v>1</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I89" s="5">
         <v>9</v>
       </c>
       <c r="J89" s="6"/>
       <c r="K89" s="4">
-        <f t="shared" si="5"/>
+        <f>(D89*I89*0.5)+(E89*I89)+(F89*I89)</f>
         <v>49.5</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" si="6"/>
+        <f>C89*I89</f>
         <v>279</v>
       </c>
       <c r="M89" s="10">
-        <f t="shared" si="7"/>
+        <f>L89+K89</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="2">
-        <v>1023</v>
+        <v>4118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C90" s="3">
         <v>31</v>
@@ -4724,34 +4726,34 @@
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I90" s="5">
         <v>8.25</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="4">
-        <f t="shared" si="5"/>
+        <f>(D90*I90*0.5)+(E90*I90)+(F90*I90)</f>
         <v>45.375</v>
       </c>
       <c r="L90" s="4">
-        <f t="shared" si="6"/>
+        <f>C90*I90</f>
         <v>255.75</v>
       </c>
       <c r="M90" s="10">
-        <f t="shared" si="7"/>
+        <f>L90+K90</f>
         <v>301.125</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="2">
-        <v>1357</v>
+        <v>4038</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C91" s="3">
         <v>31</v>
@@ -4766,34 +4768,36 @@
         <v>1</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I91" s="5">
         <v>9</v>
       </c>
-      <c r="J91" s="6"/>
+      <c r="J91" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="K91" s="4">
-        <f t="shared" si="5"/>
+        <f>(D91*I91*0.5)+(E91*I91)+(F91*I91)</f>
         <v>49.5</v>
       </c>
       <c r="L91" s="4">
-        <f t="shared" si="6"/>
+        <f>C91*I91</f>
         <v>279</v>
       </c>
       <c r="M91" s="10">
-        <f t="shared" si="7"/>
+        <f>L91+K91</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="2">
-        <v>3009</v>
+        <v>4111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C92" s="3">
         <v>31</v>
@@ -4808,34 +4812,34 @@
         <v>1</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I92" s="5">
         <v>9</v>
       </c>
       <c r="J92" s="6"/>
       <c r="K92" s="4">
-        <f t="shared" si="5"/>
+        <f>(D92*I92*0.5)+(E92*I92)+(F92*I92)</f>
         <v>49.5</v>
       </c>
       <c r="L92" s="4">
-        <f t="shared" si="6"/>
+        <f>C92*I92</f>
         <v>279</v>
       </c>
       <c r="M92" s="10">
-        <f t="shared" si="7"/>
+        <f>L92+K92</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="2">
-        <v>3085</v>
+        <v>4124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C93" s="3">
         <v>31</v>
@@ -4850,34 +4854,34 @@
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I93" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="4">
-        <f t="shared" si="5"/>
-        <v>49.5</v>
+        <f>(D93*I93*0.5)+(E93*I93)+(F93*I93)</f>
+        <v>45.375</v>
       </c>
       <c r="L93" s="4">
-        <f t="shared" si="6"/>
-        <v>279</v>
+        <f>C93*I93</f>
+        <v>255.75</v>
       </c>
       <c r="M93" s="10">
-        <f t="shared" si="7"/>
-        <v>328.5</v>
+        <f>L93+K93</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="2">
-        <v>4004</v>
+        <v>856</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C94" s="3">
         <v>31</v>
@@ -4892,34 +4896,34 @@
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I94" s="5">
         <v>9</v>
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="4">
-        <f t="shared" si="5"/>
+        <f>(D94*I94*0.5)+(E94*I94)+(F94*I94)</f>
         <v>49.5</v>
       </c>
       <c r="L94" s="4">
-        <f t="shared" si="6"/>
+        <f>C94*I94</f>
         <v>279</v>
       </c>
       <c r="M94" s="10">
-        <f t="shared" si="7"/>
+        <f>L94+K94</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="2">
-        <v>4026</v>
+        <v>1045</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C95" s="3">
         <v>31</v>
@@ -4934,34 +4938,34 @@
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I95" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J95" s="6"/>
       <c r="K95" s="4">
-        <f t="shared" si="5"/>
-        <v>45.375</v>
+        <f>(D95*I95*0.5)+(E95*I95)+(F95*I95)</f>
+        <v>49.5</v>
       </c>
       <c r="L95" s="4">
-        <f t="shared" si="6"/>
-        <v>255.75</v>
+        <f>C95*I95</f>
+        <v>279</v>
       </c>
       <c r="M95" s="10">
-        <f t="shared" si="7"/>
-        <v>301.125</v>
+        <f>L95+K95</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="2">
-        <v>4036</v>
+        <v>1068</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C96" s="3">
         <v>31</v>
@@ -4976,34 +4980,34 @@
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I96" s="5">
         <v>9</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="4">
-        <f t="shared" si="5"/>
+        <f>(D96*I96*0.5)+(E96*I96)+(F96*I96)</f>
         <v>49.5</v>
       </c>
       <c r="L96" s="4">
-        <f t="shared" si="6"/>
+        <f>C96*I96</f>
         <v>279</v>
       </c>
       <c r="M96" s="10">
-        <f t="shared" si="7"/>
+        <f>L96+K96</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="2">
-        <v>4077</v>
+        <v>4093</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C97" s="3">
         <v>31</v>
@@ -5018,34 +5022,34 @@
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I97" s="5">
         <v>8.25</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="4">
-        <f t="shared" si="5"/>
+        <f>(D97*I97*0.5)+(E97*I97)+(F97*I97)</f>
         <v>45.375</v>
       </c>
       <c r="L97" s="4">
-        <f t="shared" si="6"/>
+        <f>C97*I97</f>
         <v>255.75</v>
       </c>
       <c r="M97" s="10">
-        <f t="shared" si="7"/>
+        <f>L97+K97</f>
         <v>301.125</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="2">
-        <v>4078</v>
+        <v>4132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C98" s="3">
         <v>31</v>
@@ -5060,34 +5064,34 @@
         <v>1</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I98" s="5">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="J98" s="6"/>
       <c r="K98" s="4">
-        <f t="shared" ref="K98:K104" si="8">(D98*I98*0.5)+(E98*I98)+(F98*I98)</f>
-        <v>49.5</v>
+        <f>(D98*I98*0.5)+(E98*I98)+(F98*I98)</f>
+        <v>45.375</v>
       </c>
       <c r="L98" s="4">
-        <f t="shared" ref="L98:L104" si="9">C98*I98</f>
-        <v>279</v>
+        <f>C98*I98</f>
+        <v>255.75</v>
       </c>
       <c r="M98" s="10">
-        <f t="shared" si="7"/>
-        <v>328.5</v>
+        <f>L98+K98</f>
+        <v>301.125</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="2">
-        <v>4138</v>
+        <v>5057</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C99" s="3">
         <v>31</v>
@@ -5102,34 +5106,34 @@
         <v>1</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I99" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J99" s="6"/>
       <c r="K99" s="4">
-        <f t="shared" si="8"/>
-        <v>45.375</v>
+        <f>(D99*I99*0.5)+(E99*I99)+(F99*I99)</f>
+        <v>49.5</v>
       </c>
       <c r="L99" s="4">
-        <f t="shared" si="9"/>
-        <v>255.75</v>
+        <f>C99*I99</f>
+        <v>279</v>
       </c>
       <c r="M99" s="10">
-        <f t="shared" si="7"/>
-        <v>301.125</v>
+        <f>L99+K99</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="2">
-        <v>3052</v>
+        <v>861</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C100" s="3">
         <v>31</v>
@@ -5144,34 +5148,34 @@
         <v>1</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I100" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="4">
-        <f t="shared" si="8"/>
-        <v>45.375</v>
+        <f>(D100*I100*0.5)+(E100*I100)+(F100*I100)</f>
+        <v>49.5</v>
       </c>
       <c r="L100" s="4">
-        <f t="shared" si="9"/>
-        <v>255.75</v>
+        <f>C100*I100</f>
+        <v>279</v>
       </c>
       <c r="M100" s="10">
-        <f t="shared" si="7"/>
-        <v>301.125</v>
+        <f>L100+K100</f>
+        <v>328.5</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="2">
-        <v>4084</v>
+        <v>999</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C101" s="3">
         <v>31</v>
@@ -5186,36 +5190,34 @@
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I101" s="5">
         <v>9</v>
       </c>
-      <c r="J101" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="J101" s="6"/>
       <c r="K101" s="4">
-        <f t="shared" si="8"/>
+        <f>(D101*I101*0.5)+(E101*I101)+(F101*I101)</f>
         <v>49.5</v>
       </c>
       <c r="L101" s="4">
-        <f t="shared" si="9"/>
+        <f>C101*I101</f>
         <v>279</v>
       </c>
       <c r="M101" s="10">
-        <f t="shared" si="7"/>
+        <f>L101+K101</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="2">
-        <v>4038</v>
+        <v>3004</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C102" s="3">
         <v>31</v>
@@ -5230,36 +5232,34 @@
         <v>1</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I102" s="5">
         <v>9</v>
       </c>
-      <c r="J102" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="J102" s="6"/>
       <c r="K102" s="4">
-        <f t="shared" si="8"/>
+        <f>(D102*I102*0.5)+(E102*I102)+(F102*I102)</f>
         <v>49.5</v>
       </c>
       <c r="L102" s="4">
-        <f t="shared" si="9"/>
+        <f>C102*I102</f>
         <v>279</v>
       </c>
       <c r="M102" s="10">
-        <f t="shared" si="7"/>
+        <f>L102+K102</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="2">
-        <v>4111</v>
+        <v>3082</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C103" s="3">
         <v>31</v>
@@ -5274,34 +5274,34 @@
         <v>1</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I103" s="5">
         <v>9</v>
       </c>
       <c r="J103" s="6"/>
       <c r="K103" s="4">
-        <f t="shared" si="8"/>
+        <f>(D103*I103*0.5)+(E103*I103)+(F103*I103)</f>
         <v>49.5</v>
       </c>
       <c r="L103" s="4">
-        <f t="shared" si="9"/>
+        <f>C103*I103</f>
         <v>279</v>
       </c>
       <c r="M103" s="10">
-        <f t="shared" si="7"/>
+        <f>L103+K103</f>
         <v>328.5</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="2">
-        <v>4124</v>
+        <v>4033</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C104" s="3">
         <v>31</v>
@@ -5316,26 +5316,26 @@
         <v>1</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I104" s="5">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="J104" s="6"/>
       <c r="K104" s="4">
-        <f t="shared" si="8"/>
-        <v>45.375</v>
+        <f>(D104*I104*0.5)+(E104*I104)+(F104*I104)</f>
+        <v>49.5</v>
       </c>
       <c r="L104" s="4">
-        <f t="shared" si="9"/>
-        <v>255.75</v>
+        <f>C104*I104</f>
+        <v>279</v>
       </c>
       <c r="M104" s="10">
-        <f t="shared" si="7"/>
-        <v>301.125</v>
+        <f>L104+K104</f>
+        <v>328.5</v>
       </c>
     </row>
   </sheetData>
